--- a/job.xlsx
+++ b/job.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <r>
       <rPr>
@@ -29,34 +29,122 @@
         <rFont val="Verdana-Bold"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">Company Name: Medpace
-Positions: Entry Level Software Engineer
+      <t xml:space="preserve">Company Website: </t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Verdana-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Flex
+Positions: Global IT Helpdesk Associate Engineer 
+Degree Needed: B.E/B.Tech/M.E/M.Tech/B.Sc/M.Sc
+Batch: 2023/2024/2025
+Work Location: Chennai, India
+Experience Level: 0 – 2 Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="HelveticaNeue"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">
+for more details and to apply directly on company website uuse the below link
+https://flextronics.wd1.myworkdayjobs.com/en-US/Careers/job/India-Chennai/Associate-Engineer---Global-IT-Helpdesk_WD198158</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Company Website: IBM
+Wikipedia: IBM Wiki
+Job Role: Software Developer Intern
+Qualification: B.E/B.Tech
+Batch Eligible: 2024/2025
+Work Location: Bangalore, Hyderabad India
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Verdana-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Experience Level:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Verdana"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Verdana-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">0 – 1 Years
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">To know more and to apply
+https://login.ibm.com/authsvc/mtfim/sps/authsvc?PolicyId=urn:ibm:security:authentication:asf:basicldapuser&amp;Target=https%3A%2F%2Flogin.ibm.com%2Fsaml%2Fsps%2Fauth</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Verdana-Bold"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">Company: Volvo
+Profile: Graduate Apprentice Trainee
 Degree Needed: B.E/B.Tech
-Passout Year: 2024/2025
-Job Location: Navi Mumbai, India
-Experience Level: 0-1 Year
-Salary: Best In Industry
+Passout Batch: 2025
+Job Location: Bangalore, India
+Experience Level: Freshers
+Salary: Best in Industry
 </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
+        <sz val="12"/>
         <color rgb="FFFFFFFF"/>
         <rFont val="HelveticaNeue"/>
         <family val="0"/>
       </rPr>
-      <t xml:space="preserve">for more details and to apply directly on company website uuse the below link
-</t>
-    </r>
-    <r>
-      <rPr>
-        <u val="single"/>
-        <sz val="10"/>
-        <color rgb="FFFFFFFF"/>
-        <rFont val="HelveticaNeue"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">https://careers.medpace.com/jobs/10980?lang=en-us&amp;iis=Job+Board&amp;iisn=LinkedIn</t>
+      <t xml:space="preserve">To know more and to apply
+https://jobs.volvogroup.com/job/Bangalore-Graduate-Apprentice-Trainee-_NET-562122/1153274655/?feedId=361555</t>
     </r>
   </si>
 </sst>
@@ -67,7 +155,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -96,14 +184,47 @@
       <family val="0"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana-Bold"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="HelveticaNeue"/>
       <family val="0"/>
     </font>
     <font>
-      <u val="single"/>
-      <sz val="10"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana-Bold"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Verdana-Bold"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FFFFFFFF"/>
       <name val="HelveticaNeue"/>
       <family val="0"/>
@@ -174,7 +295,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -184,18 +305,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -219,7 +348,7 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFFAAB1F"/>
+          <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FF000000"/>
         </patternFill>
       </fill>
@@ -401,13 +530,13 @@
   </sheetPr>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="70"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="118.77"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="144.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -415,40 +544,42 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="115.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+    <row r="2" customFormat="false" ht="157.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3"/>
+    <row r="3" customFormat="false" ht="154.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3"/>
+      <c r="A5" s="5"/>
     </row>
     <row r="6" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3"/>
+      <c r="A6" s="5"/>
     </row>
     <row r="7" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3"/>
+      <c r="A7" s="5"/>
     </row>
     <row r="8" customFormat="false" ht="18.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3"/>
+      <c r="A8" s="5"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5"/>
+      <c r="A12" s="7"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -465,8 +596,7 @@
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://careers.medpace.com/jobs/10980?lang=en-us&amp;iis=Job+Board&amp;iisn=LinkedIn"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://careers.medpace.com/jobs/10980?lang=en-us&amp;iis=Job+Board&amp;iisn=LinkedIn"/>
+    <hyperlink ref="A3" r:id="rId1" display="https://jobs.volvogroup.com/job/Bangalore-Graduate-Apprentice-Trainee-_NET-562122/1153274655/?feedId=361555"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.025" bottom="1.025" header="0.7875" footer="0.7875"/>

--- a/job.xlsx
+++ b/job.xlsx
@@ -530,7 +530,7 @@
   </sheetPr>
   <dimension ref="A1:A25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/job.xlsx
+++ b/job.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{49621D1D-B00E-45F0-A5F8-BF59688B9631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E160EC60-32FD-4BA7-BEFD-7FA5A7E74D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Company Website: Flex
 Positions: Global IT Helpdesk Associate Engineer
@@ -107,6 +107,30 @@
 Experience Level: 0 – 1 Year
 To know more and to apply
 https://careers.qualcomm.com/careers/job/446703994654?hl=en-US&amp;domain=qualcomm.com&amp;source=APPLICANT_SOURCE-6-2</t>
+  </si>
+  <si>
+    <t>Company Website: GE Healthcare
+Wikipedia: GE Healthcare Wiki
+Job Role: Trainee Engineer
+Qualification: B.E/B.Tech
+Passout Year: 2025
+Job Location: Bengaluru, Karnataka, India
+Experience Level: Fresher
+To know more and to apply
+https://careers.gehealthcare.com/global/en/job/GEVGHLGLOBALR4021892EXTERNALENGLOBAL/Trainee-Engineer?utm_source=indeed&amp;utm_medium=phenom-feeds&amp;ittk=YASEQPMKC5</t>
+  </si>
+  <si>
+    <t>Company Name: Cisco
+Company Website: Cisco
+Wikipedia: Cisco Wiki
+Job Profile: Full Stack Software Engineer – React &amp; Java (Entry Level)
+Qualifications: B.E/B.Tech
+Batch Eligible: 2024/2025
+Work Location: Bangalore, India
+Experience Level: 0 – 1 Year
+Salary: Best In Industry
+To know more and to apply
+https://jobs.cisco.com/jobs/ProjectDetail/Full-Stack-Software-Engineer-React-Java-Entry-Level/1440167</t>
   </si>
 </sst>
 </file>
@@ -543,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:A9"/>
+  <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -589,7 +613,16 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="290.25" customHeight="1"/>
+    <row r="9" spans="1:1" ht="290.25" customHeight="1">
+      <c r="A9" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="307.5" customHeight="1">
+      <c r="A10" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/job.xlsx
+++ b/job.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E160EC60-32FD-4BA7-BEFD-7FA5A7E74D1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB272A3-CFDD-43D6-8613-102B436CD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,106 +31,38 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Company Website: Flex
-Positions: Global IT Helpdesk Associate Engineer
-Degree Needed: B.E/B.Tech/M.E/M.Tech/B.Sc/M.Sc
-Batch: 2023/2024/2025
-Work Location: Chennai, India
-Experience Level: 0 – 2 Years
-for more details and to apply directly on company website uuse the below link
-https://flextronics.wd1.myworkdayjobs.com/en-US/Careers/job/India-Chennai/Associate-Engineer---Global-IT-Helpdesk_WD198158</t>
-  </si>
-  <si>
-    <t>Company Website: IBM
-Wikipedia: IBM Wiki
-Job Role: Software Developer Intern
-Qualification: B.E/B.Tech
-Batch Eligible: 2024/2025
-Work Location: Bangalore, Hyderabad India
-Experience Level: 0 – 1 Years
-To know more and to apply
-https://login.ibm.com/authsvc/mtfim/sps/authsvc?PolicyId=urn:ibm:security:authentication:asf:basicldapuser&amp;Target=https%3A%2F%2Flogin.ibm.com%2Fsaml%2Fsps%2Fauth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Website: Siemens
-Position: Graduate Trainee Engineer
-Education: B.E/B.Tech
-Passout Batch: 2025
-Job Location: Bangalore, Karnataka, India
-Salary: As Per IT Standards
-Experience Level: 0 – 1 Yearfor more details and to apply directly on company website uuse the below link
-To know more and to apply
-https://jobs.siemens.com/careers/job/563156124140142?hl=en&amp;utm_source=indeed&amp;domain=siemens.com
-</t>
-  </si>
-  <si>
-    <t>Company name: Medpace
-Positions: Entry Level Software Engineer
-Degree Needed: B.E/B.Tech
-Passout Year: 2024/2025
-Job Location: Navi Mumbai, India
-Experience Level: 0-1 Year
-Salary: Best In Industry
-To know more and to apply
-https://careers.medpace.com/jobs/10980?lang=en-us&amp;iis=Job+Board&amp;iisn=LinkedIn</t>
-  </si>
-  <si>
-    <t>Company Name: Adobe Inc
-Job Role: Software Development Engineer
-Qualification: B.E/B.Tech/MS
-Passout Year: 2024/2025
-Job Location: Bangalore, India
+    <t>Company Name: Cognizant Technology Solutions Corporation
+Job Profile: Jr. Online Analyst – CM
+Qualifications: B.E/B.Tech
+Eligible Batch: 2024/2025
+Job Location: Hyderabad, India
 Salary: As Per IT Standards
 Experience Level: 0 – 1 Year
 To know more and to apply
-https://careers.adobe.com/us/en/job/ADOBUSR154047EXTERNALENUS/Software-Development-Engineer?utm_source=indeed&amp;utm_medium=phenom-feeds</t>
+https://careers.cognizant.com/global-en/jobs/00063178161/jr-online-analyst-cm/?source=JB-17501&amp;_ccid=17438752580943m541vx4u&amp;ittk=BO0HI63OSO</t>
   </si>
   <si>
-    <t>Company Name: Molex
-Degree Needed: BE/BTech in Electrical/Electronic &amp; Communication Engineering
-Batch Eligible: 2024/2025
-Work Location: Bangalore, Karnataka India
-Experience Level: 0 – 1 Year
-Package: Best In Industry
-To know more and to apply
-https://koch.avature.net/en_US/careers/JobDetail/170559</t>
-  </si>
-  <si>
-    <t>Company Name: Qualcomm
-Position: Associate Engineer
-Degree Needed: B.E/B.Tech/M.E/M.Tech
-Passout Year: 2024/2025
-Job Location: Bangalore, India
-Salary: Best in the Market
-Experience Level: 0 – 1 Year
-To know more and to apply
-https://careers.qualcomm.com/careers/job/446703994654?hl=en-US&amp;domain=qualcomm.com&amp;source=APPLICANT_SOURCE-6-2</t>
-  </si>
-  <si>
-    <t>Company Website: GE Healthcare
-Wikipedia: GE Healthcare Wiki
-Job Role: Trainee Engineer
+    <t>Company Name: Oracle LLC Corporation
+Job Role: IT Systems Analyst
 Qualification: B.E/B.Tech
-Passout Year: 2025
-Job Location: Bengaluru, Karnataka, India
-Experience Level: Fresher
-To know more and to apply
-https://careers.gehealthcare.com/global/en/job/GEVGHLGLOBALR4021892EXTERNALENGLOBAL/Trainee-Engineer?utm_source=indeed&amp;utm_medium=phenom-feeds&amp;ittk=YASEQPMKC5</t>
-  </si>
-  <si>
-    <t>Company Name: Cisco
-Company Website: Cisco
-Wikipedia: Cisco Wiki
-Job Profile: Full Stack Software Engineer – React &amp; Java (Entry Level)
-Qualifications: B.E/B.Tech
 Batch Eligible: 2024/2025
 Work Location: Bangalore, India
 Experience Level: 0 – 1 Year
-Salary: Best In Industry
 To know more and to apply
-https://jobs.cisco.com/jobs/ProjectDetail/Full-Stack-Software-Engineer-React-Java-Entry-Level/1440167</t>
+https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/jobsearch/job/284270?utm_medium=jobboard&amp;utm_source=LinkedIn</t>
+  </si>
+  <si>
+    <t>Company Name: Wipro India
+Job Profile: Trainee
+Qualifications: Graduates
+Eligible Batch: 2025
+Work Locations: Noida, India
+Experience Level: 0 – 1 Year
+Salary: Best In the Industry
+To know more and to apply
+https://careers.wipro.com/job/Noida-Trainee-201308/1153845055/</t>
   </si>
 </sst>
 </file>
@@ -569,8 +501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -578,12 +510,12 @@
     <col min="1" max="1" width="148.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" s="2" customFormat="1" ht="169.5" customHeight="1">
+    <row r="2" spans="1:1" s="2" customFormat="1" ht="250.5" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" s="2" customFormat="1" ht="154.5" customHeight="1">
+    <row r="3" spans="1:1" s="2" customFormat="1" ht="243.75" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -594,34 +526,22 @@
       </c>
     </row>
     <row r="5" spans="1:1" s="1" customFormat="1" ht="246.75" customHeight="1">
-      <c r="A5" s="6" t="s">
-        <v>3</v>
-      </c>
+      <c r="A5" s="6"/>
     </row>
     <row r="6" spans="1:1" ht="263.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:1" ht="243" customHeight="1">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
+      <c r="A7" s="7"/>
     </row>
     <row r="8" spans="1:1" ht="288.75" customHeight="1">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
+      <c r="A8" s="7"/>
     </row>
     <row r="9" spans="1:1" ht="290.25" customHeight="1">
-      <c r="A9" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="A9" s="7"/>
     </row>
     <row r="10" spans="1:1" ht="307.5" customHeight="1">
-      <c r="A10" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A10" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/job.xlsx
+++ b/job.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCB272A3-CFDD-43D6-8613-102B436CD16A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8E5874-76A2-402B-8371-EC2967D162B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,38 +31,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Company Name: Cognizant Technology Solutions Corporation
-Job Profile: Jr. Online Analyst – CM
+    <t>Company Name: Qualcomm
+Position: Engineer
+Degree Needed: B.E/B.Tech/M.E/M.Tech
+Passout Year: 2024/2025
+Job Location: Hyderabad, India
+Salary: Best in the Market
+Experience Level: 0 – 1 Year
+for more details and to apply https://careers.qualcomm.com/careers/job/446704696485?hl=en-US&amp;domain=qualcomm.com&amp;source=APPLICANT_SOURCE-6-2</t>
+  </si>
+  <si>
+    <t>Company Name: Synopsys
+Job Profile: Software Engineering InternCompany Name: 
+Degree Needed: B.E/B.Tech/M.E/M.Tech
+Passout Year: 2025
+Work Location: Hyderabad, India
+Experience Level: 0 – 1 Year
+Salary: Best In Industry
+To know more and to apply
+https://careers.synopsys.com/job/-/-/44408/79804019536</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Company Name: Cognizant Technology Solutions Corporation
+Job Profile: Systems Engineer
 Qualifications: B.E/B.Tech
-Eligible Batch: 2024/2025
-Job Location: Hyderabad, India
+Eligible Batch: 2025
+Job Location: Chennai, India
 Salary: As Per IT Standards
 Experience Level: 0 – 1 Year
 To know more and to apply
-https://careers.cognizant.com/global-en/jobs/00063178161/jr-online-analyst-cm/?source=JB-17501&amp;_ccid=17438752580943m541vx4u&amp;ittk=BO0HI63OSO</t>
+https://careers.cognizant.com/global-en/jobs/00062780431/senior-software-engineer-pos-systems-remote/
+</t>
   </si>
   <si>
     <t>Company Name: Oracle LLC Corporation
-Job Role: IT Systems Analyst
+Job Role: Applications Developer
 Qualification: B.E/B.Tech
-Batch Eligible: 2024/2025
-Work Location: Bangalore, India
+Batch Eligible: 2025
+Work Location: Bangalore, Hyderabad, Gandhi Nagar, Thiruvananthapuram, New Delhi India
 Experience Level: 0 – 1 Year
 To know more and to apply
-https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/jobsearch/job/284270?utm_medium=jobboard&amp;utm_source=LinkedIn</t>
+https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/jobsearch/job/270673</t>
   </si>
   <si>
-    <t>Company Name: Wipro India
-Job Profile: Trainee
-Qualifications: Graduates
-Eligible Batch: 2025
-Work Locations: Noida, India
-Experience Level: 0 – 1 Year
-Salary: Best In the Industry
+    <t>Company Name: Baxter
+Job Profile: Research &amp; development
+Qualification: B.E/B.Tech
+Batch Eligible: NA
+job location: Bangalore, India
+Experience Level: 4 – 5 Year
+Salary: Best In Industry
 To know more and to apply
-https://careers.wipro.com/job/Noida-Trainee-201308/1153845055/</t>
+https://jobs.baxter.com/en/job/bengaluru/senior-manager-device-software-front-line-care/152/79861569312</t>
   </si>
 </sst>
 </file>
@@ -501,8 +523,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -526,10 +548,14 @@
       </c>
     </row>
     <row r="5" spans="1:1" s="1" customFormat="1" ht="246.75" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="6" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="6" spans="1:1" ht="263.25" customHeight="1">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:1" ht="243" customHeight="1">
       <c r="A7" s="7"/>

--- a/job.xlsx
+++ b/job.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28803"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6A8E5874-76A2-402B-8371-EC2967D162B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{41F6DC9E-8A28-4586-A276-AA5641C38285}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,60 +31,50 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Company Name: Qualcomm
-Position: Engineer
-Degree Needed: B.E/B.Tech/M.E/M.Tech
+    <t xml:space="preserve">Company Name: Honeywell
+Position: Embedded Engineer
+Degree Needed: B.E/B.Tech
 Passout Year: 2024/2025
 Job Location: Hyderabad, India
-Salary: Best in the Market
-Experience Level: 0 – 1 Year
-for more details and to apply https://careers.qualcomm.com/careers/job/446704696485?hl=en-US&amp;domain=qualcomm.com&amp;source=APPLICANT_SOURCE-6-2</t>
-  </si>
-  <si>
-    <t>Company Name: Synopsys
-Job Profile: Software Engineering InternCompany Name: 
-Degree Needed: B.E/B.Tech/M.E/M.Tech
-Passout Year: 2025
-Work Location: Hyderabad, India
-Experience Level: 0 – 1 Year
-Salary: Best In Industry
+Salary: Best In Industry 
+Experience Level: 0 – 2 Years
 To know more and to apply
-https://careers.synopsys.com/job/-/-/44408/79804019536</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Company Name: Cognizant Technology Solutions Corporation
-Job Profile: Systems Engineer
-Qualifications: B.E/B.Tech
-Eligible Batch: 2025
-Job Location: Chennai, India
-Salary: As Per IT Standards
-Experience Level: 0 – 1 Year
-To know more and to apply
-https://careers.cognizant.com/global-en/jobs/00062780431/senior-software-engineer-pos-systems-remote/
+https://careers.honeywell.com/us/en/job/HONEUSHRD262619EXTERNALENUS/Embedded-Engr-I?utm_source=linkedin&amp;utm_medium=phenom-feeds
 </t>
   </si>
   <si>
-    <t>Company Name: Oracle LLC Corporation
-Job Role: Applications Developer
+    <t>Company Name: Google LLC.
+Job Profile: Software Engineer
 Qualification: B.E/B.Tech
-Batch Eligible: 2025
-Work Location: Bangalore, Hyderabad, Gandhi Nagar, Thiruvananthapuram, New Delhi India
+Batch Eligible: 2026
+Job Location: Hyderabad, Bangalore, Gurugram, Mumbai, Pune, India
 Experience Level: 0 – 1 Year
+Google Salary: Best In Industry
 To know more and to apply
-https://eeho.fa.us2.oraclecloud.com/hcmUI/CandidateExperience/en/sites/jobsearch/job/270673</t>
+https://www.google.com/about/careers/applications/jobs/results/112954792476582598-software-engineer-university-graduate-2026?q=University%20Graduate&amp;location=India</t>
   </si>
   <si>
-    <t>Company Name: Baxter
-Job Profile: Research &amp; development
-Qualification: B.E/B.Tech
-Batch Eligible: NA
-job location: Bangalore, India
-Experience Level: 4 – 5 Year
-Salary: Best In Industry
+    <t>Company Name: Amazon
+Job Profile: Software Development Engineer
+Qualifications: B.E/B.Tech
+Batch Eligible: 2024/2025
+Work Location: Bengaluru, India 
+Experience Level: 0 -1 Year
 To know more and to apply
-https://jobs.baxter.com/en/job/bengaluru/senior-manager-device-software-front-line-care/152/79861569312</t>
+https://www.amazon.jobs/en/jobs/2943666/software-dev-engineer?cmpid=SPLICX0248M&amp;utm_source=linkedin.com&amp;utm_campaign=cxro&amp;utm_medium=social_media&amp;utm_content=job_posting&amp;ss=paid</t>
+  </si>
+  <si>
+    <t>Company Name: S&amp;P Global Inc 
+Position: Software Development Engineer
+Degree Needed: B.E/B.Tech/M.E/M.Tech
+Passout Year: 2024/2025
+Job Location: Bangalore, India
+Exp Needed: 0 – 1 Year
+Package: Best In Industry
+To apply and to know more
+https://careers.spglobal.com/jobs/314177?lang=en-us&amp;utm_source=linkedin</t>
   </si>
 </sst>
 </file>
@@ -523,8 +513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:A10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -553,9 +543,7 @@
       </c>
     </row>
     <row r="6" spans="1:1" ht="263.25" customHeight="1">
-      <c r="A6" s="7" t="s">
-        <v>4</v>
-      </c>
+      <c r="A6" s="7"/>
     </row>
     <row r="7" spans="1:1" ht="243" customHeight="1">
       <c r="A7" s="7"/>
